--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2370.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2370.xlsx
@@ -354,7 +354,7 @@
         <v>1.547907393245449</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.801893465622524</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2370.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2370.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8593016100336085</v>
+        <v>0.9934803247451782</v>
       </c>
       <c r="B1">
-        <v>1.547907393245449</v>
+        <v>2.02260422706604</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.33855676651001</v>
       </c>
       <c r="D1">
-        <v>1.801893465622524</v>
+        <v>1.067158937454224</v>
       </c>
       <c r="E1">
-        <v>1.20568290269854</v>
+        <v>0.858919620513916</v>
       </c>
     </row>
   </sheetData>
